--- a/artfynd/A 23370-2021.xlsx
+++ b/artfynd/A 23370-2021.xlsx
@@ -1176,62 +1176,62 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>118329</v>
+        <v>13417148</v>
       </c>
       <c r="B6" t="n">
-        <v>97407</v>
+        <v>28960</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på determinatörs verifiering</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>102664</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vittåtel</t>
+          <t>Rapssandbi</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Aira caryophyllea</t>
+          <t>Andrena bimaculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Kirby, 1802)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>hona</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lindby Tall, Öl</t>
+          <t>NO Lindby tall, Öl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>604806.2183970422</v>
+        <v>604865.0853907394</v>
       </c>
       <c r="R6" t="n">
-        <v>6299327.030962365</v>
+        <v>6299407.33278078</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2012-06-03</t>
+          <t>2003-07-18</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2012-06-03</t>
+          <t>2003-07-18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1273,6 +1273,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Leg. Magnus Larsson Melilolotus alba1</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1282,30 +1287,30 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>fd sandtag/dammkant</t>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>10535</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson</t>
+          <t>Magnus Stenmark</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson, Ulla-Britt Andersson</t>
+          <t>Magnus Stenmark</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13417148</v>
+        <v>13416925</v>
       </c>
       <c r="B7" t="n">
-        <v>28960</v>
+        <v>29264</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,25 +1319,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102664</v>
+        <v>100837</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rapssandbi</t>
+          <t>Kilbi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Andrena bimaculata</t>
+          <t>Aglaoapis tridentata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Kirby, 1802)</t>
+          <t>(Nylander, 1848)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1381,7 +1386,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2003-07-18</t>
+          <t>2004-07-08</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1391,7 +1396,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2003-07-18</t>
+          <t>2004-07-08</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1401,7 +1406,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Leg. Magnus Larsson Melilolotus alba1</t>
+          <t>Leg. Magnus Larsson Anthemis tinctoria</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,7 +1420,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>10535</t>
+          <t>11147</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1433,62 +1438,57 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13416925</v>
+        <v>72583571</v>
       </c>
       <c r="B8" t="n">
-        <v>29264</v>
+        <v>96312</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Godkänd baserat på determinatörs verifiering</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100837</v>
+        <v>219798</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kilbi</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Aglaoapis tridentata</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nylander, 1848)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>NO Lindby tall, Öl</t>
+          <t>Lindby Tall f.d. sandtag, Öl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>604865.0853907394</v>
+        <v>604616.1597116844</v>
       </c>
       <c r="R8" t="n">
-        <v>6299407.33278078</v>
+        <v>6299425.721711012</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2004-07-08</t>
+          <t>2018-08-05</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2004-07-08</t>
+          <t>2018-08-05</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1530,44 +1530,40 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Leg. Magnus Larsson Anthemis tinctoria</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>11147</t>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>gammalt sandtag, igenväxande</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Magnus Stenmark</t>
+          <t>Ulla-Britt Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Magnus Stenmark</t>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72583571</v>
+        <v>72583614</v>
       </c>
       <c r="B9" t="n">
-        <v>96312</v>
+        <v>96319</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1580,16 +1576,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219798</v>
+        <v>219799</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Kärrknipprot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1608,10 +1604,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>604616.1597116844</v>
+        <v>604754.3467090589</v>
       </c>
       <c r="R9" t="n">
-        <v>6299425.721711012</v>
+        <v>6299405.100922338</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1686,10 +1682,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72583614</v>
+        <v>78537455</v>
       </c>
       <c r="B10" t="n">
-        <v>96319</v>
+        <v>96312</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1702,16 +1698,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219799</v>
+        <v>219798</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kärrknipprot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1726,17 +1722,17 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Lindby Tall f.d. sandtag, Öl</t>
+          <t>Lindby Tall, Öl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>604754.3467090589</v>
+        <v>604780.0279639072</v>
       </c>
       <c r="R10" t="n">
-        <v>6299405.100922338</v>
+        <v>6299387.134097007</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1760,7 +1756,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2018-08-05</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1770,12 +1766,17 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2018-08-05</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>30 talet plantor</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1788,30 +1789,25 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>gammalt sandtag, igenväxande</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Robin Isaksson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+          <t>Robin Isaksson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78537455</v>
+        <v>86907131</v>
       </c>
       <c r="B11" t="n">
-        <v>96312</v>
+        <v>96319</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1824,16 +1820,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219798</v>
+        <v>219799</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Kärrknipprot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1852,13 +1848,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>604780.0279639072</v>
+        <v>604760.5280010353</v>
       </c>
       <c r="R11" t="n">
-        <v>6299387.134097007</v>
+        <v>6299377.339311483</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1882,7 +1878,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1892,17 +1888,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>30 talet plantor</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1915,25 +1906,30 @@
       <c r="AG11" t="b">
         <v>0</v>
       </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>igenväxande sandtag/vid liten damm</t>
+        </is>
+      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Robin Isaksson</t>
+          <t>Ulla-Britt Andersson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Robin Isaksson</t>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>86907131</v>
+        <v>86907177</v>
       </c>
       <c r="B12" t="n">
-        <v>96319</v>
+        <v>96370</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1946,21 +1942,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219799</v>
+        <v>219875</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kärrknipprot</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Custer) Rchb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1974,10 +1970,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>604760.5280010353</v>
+        <v>604631.8089772827</v>
       </c>
       <c r="R12" t="n">
-        <v>6299377.339311483</v>
+        <v>6299457.861696233</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2052,10 +2048,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>86907177</v>
+        <v>86907127</v>
       </c>
       <c r="B13" t="n">
-        <v>96370</v>
+        <v>103400</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2064,30 +2060,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219875</v>
+        <v>224190</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Flockarun</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Custer) Rchb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>Centaurium erythraea var. erythraea</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2096,10 +2100,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>604631.8089772827</v>
+        <v>604760.5280010353</v>
       </c>
       <c r="R13" t="n">
-        <v>6299457.861696233</v>
+        <v>6299377.339311483</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2174,10 +2178,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>86907127</v>
+        <v>92315739</v>
       </c>
       <c r="B14" t="n">
-        <v>103400</v>
+        <v>104036</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2190,46 +2194,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>224190</v>
+        <v>1656</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Flockarun</t>
+          <t>Klibbveronika</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Centaurium erythraea var. erythraea</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Veronica triphyllos</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Lindby Tall, Öl</t>
+          <t>Lindby tall, Öl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>604760.5280010353</v>
+        <v>604689.5818825862</v>
       </c>
       <c r="R14" t="n">
-        <v>6299377.339311483</v>
+        <v>6299494.341536127</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2256,7 +2252,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2021-04-10</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2266,7 +2262,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2021-04-10</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2284,30 +2280,25 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>igenväxande sandtag/vid liten damm</t>
-        </is>
-      </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Michael Tholin</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+          <t>Michael Tholin, Elin Boberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>92315739</v>
+        <v>97150066</v>
       </c>
       <c r="B15" t="n">
-        <v>104036</v>
+        <v>96319</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2316,25 +2307,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1656</v>
+        <v>219799</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Klibbveronika</t>
+          <t>Kärrknipprot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Veronica triphyllos</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2348,10 +2339,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>604689.5818825862</v>
+        <v>604749.5650598217</v>
       </c>
       <c r="R15" t="n">
-        <v>6299494.341536127</v>
+        <v>6299377.064317416</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2378,7 +2369,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-04-10</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2388,7 +2379,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-04-10</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2406,25 +2397,30 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>gammal sandtag med dammar</t>
+        </is>
+      </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Michael Tholin</t>
+          <t>Ulla-Britt Andersson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Michael Tholin, Elin Boberg</t>
+          <t>Ulla-Britt Andersson, Ingela Carlström, Thomas Gunnarsson, Tommy Carlström</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>97150066</v>
+        <v>103149501</v>
       </c>
       <c r="B16" t="n">
-        <v>96319</v>
+        <v>9182</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2433,45 +2429,50 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219799</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kärrknipprot</t>
-        </is>
+        <v>101093</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Hydrophilus aterrimus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+          <t>Eschscholtz, 1822</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>vattenhåvning</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Lindby tall, Öl</t>
+          <t>Lindby Tall, Öl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>604749.5650598217</v>
+        <v>604775.4498057003</v>
       </c>
       <c r="R16" t="n">
-        <v>6299377.064317416</v>
+        <v>6299416.577989991</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2495,7 +2496,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2006-12-16</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2505,7 +2506,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2006-12-16</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2513,40 +2514,48 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Insamlingstillfälle 587. Lokalnr JG 152. Fynddata ur boken Vattenskalbaggar på Öland och i sydöstra Småland (2021). Se bok och bilagor med underlagsdata för närmare beskrivningar av metodik och resultat.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>gammal sandtag med dammar</t>
+          <t>Damm i grustag</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Håkan Ljungberg</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Ingela Carlström, Thomas Gunnarsson, Tommy Carlström</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+          <t>Joja Geijer</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Vattenskalbaggar på Öland och i sydöstra Småland</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>103149501</v>
+        <v>118329</v>
       </c>
       <c r="B17" t="n">
-        <v>9182</v>
+        <v>97407</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2559,31 +2568,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>101093</v>
+        <v>16</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vittåtel</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydrophilus aterrimus</t>
+          <t>Aira caryophyllea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Eschscholtz, 1822</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>vattenhåvning</t>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2592,13 +2601,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>604775.4498057003</v>
+        <v>604806.2183970422</v>
       </c>
       <c r="R17" t="n">
-        <v>6299416.577989991</v>
+        <v>6299327.030962365</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2622,7 +2631,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2006-12-16</t>
+          <t>2012-06-03</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2632,7 +2641,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2006-12-16</t>
+          <t>2012-06-03</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2640,11 +2649,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Insamlingstillfälle 587. Lokalnr JG 152. Fynddata ur boken Vattenskalbaggar på Öland och i sydöstra Småland (2021). Se bok och bilagor med underlagsdata för närmare beskrivningar av metodik och resultat.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2656,25 +2660,21 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Damm i grustag</t>
+          <t>fd sandtag/dammkant</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Håkan Ljungberg</t>
+          <t>Thomas Gunnarsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Joja Geijer</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>Vattenskalbaggar på Öland och i sydöstra Småland</t>
-        </is>
-      </c>
+          <t>Thomas Gunnarsson, Ulla-Britt Andersson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 23370-2021.xlsx
+++ b/artfynd/A 23370-2021.xlsx
@@ -1176,62 +1176,62 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13417148</v>
+        <v>118329</v>
       </c>
       <c r="B6" t="n">
-        <v>28960</v>
+        <v>97407</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Godkänd baserat på determinatörs verifiering</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102664</v>
+        <v>16</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rapssandbi</t>
+          <t>Vittåtel</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Andrena bimaculata</t>
+          <t>Aira caryophyllea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kirby, 1802)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>hona</t>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>NO Lindby tall, Öl</t>
+          <t>Lindby Tall, Öl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>604865.0853907394</v>
+        <v>604806.2183970422</v>
       </c>
       <c r="R6" t="n">
-        <v>6299407.33278078</v>
+        <v>6299327.030962365</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2003-07-18</t>
+          <t>2012-06-03</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2003-07-18</t>
+          <t>2012-06-03</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1273,11 +1273,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Leg. Magnus Larsson Melilolotus alba1</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1287,30 +1282,30 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>10535</t>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>fd sandtag/dammkant</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Magnus Stenmark</t>
+          <t>Thomas Gunnarsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Magnus Stenmark</t>
+          <t>Thomas Gunnarsson, Ulla-Britt Andersson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13416925</v>
+        <v>13417148</v>
       </c>
       <c r="B7" t="n">
-        <v>29264</v>
+        <v>28960</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1319,25 +1314,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100837</v>
+        <v>102664</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kilbi</t>
+          <t>Rapssandbi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Aglaoapis tridentata</t>
+          <t>Andrena bimaculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nylander, 1848)</t>
+          <t>(Kirby, 1802)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1386,7 +1381,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2004-07-08</t>
+          <t>2003-07-18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1396,7 +1391,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2004-07-08</t>
+          <t>2003-07-18</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1406,7 +1401,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Leg. Magnus Larsson Anthemis tinctoria</t>
+          <t>Leg. Magnus Larsson Melilolotus alba1</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1420,7 +1415,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>11147</t>
+          <t>10535</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1438,57 +1433,62 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72583571</v>
+        <v>13416925</v>
       </c>
       <c r="B8" t="n">
-        <v>96312</v>
+        <v>29264</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på determinatörs verifiering</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219798</v>
+        <v>100837</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Kilbi</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Aglaoapis tridentata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>(Nylander, 1848)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lindby Tall f.d. sandtag, Öl</t>
+          <t>NO Lindby tall, Öl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>604616.1597116844</v>
+        <v>604865.0853907394</v>
       </c>
       <c r="R8" t="n">
-        <v>6299425.721711012</v>
+        <v>6299407.33278078</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-08-05</t>
+          <t>2004-07-08</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-08-05</t>
+          <t>2004-07-08</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1530,40 +1530,44 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Leg. Magnus Larsson Anthemis tinctoria</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>gammalt sandtag, igenväxande</t>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>11147</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Magnus Stenmark</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+          <t>Magnus Stenmark</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72583614</v>
+        <v>72583571</v>
       </c>
       <c r="B9" t="n">
-        <v>96319</v>
+        <v>96312</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1576,16 +1580,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219799</v>
+        <v>219798</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kärrknipprot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1604,10 +1608,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>604754.3467090589</v>
+        <v>604616.1597116844</v>
       </c>
       <c r="R9" t="n">
-        <v>6299405.100922338</v>
+        <v>6299425.721711012</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1682,10 +1686,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78537455</v>
+        <v>72583614</v>
       </c>
       <c r="B10" t="n">
-        <v>96312</v>
+        <v>96319</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1698,16 +1702,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219798</v>
+        <v>219799</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Kärrknipprot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1722,17 +1726,17 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Lindby Tall, Öl</t>
+          <t>Lindby Tall f.d. sandtag, Öl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>604780.0279639072</v>
+        <v>604754.3467090589</v>
       </c>
       <c r="R10" t="n">
-        <v>6299387.134097007</v>
+        <v>6299405.100922338</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1756,7 +1760,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2018-08-05</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1766,17 +1770,12 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2019-06-22</t>
+          <t>2018-08-05</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>30 talet plantor</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1789,25 +1788,30 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>gammalt sandtag, igenväxande</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Robin Isaksson</t>
+          <t>Ulla-Britt Andersson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Robin Isaksson</t>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86907131</v>
+        <v>78537455</v>
       </c>
       <c r="B11" t="n">
-        <v>96319</v>
+        <v>96312</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1820,16 +1824,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219799</v>
+        <v>219798</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kärrknipprot</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1848,13 +1852,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>604760.5280010353</v>
+        <v>604780.0279639072</v>
       </c>
       <c r="R11" t="n">
-        <v>6299377.339311483</v>
+        <v>6299387.134097007</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1878,7 +1882,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1888,12 +1892,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2019-06-22</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>30 talet plantor</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1906,30 +1915,25 @@
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>igenväxande sandtag/vid liten damm</t>
-        </is>
-      </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Robin Isaksson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+          <t>Robin Isaksson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>86907177</v>
+        <v>86907131</v>
       </c>
       <c r="B12" t="n">
-        <v>96370</v>
+        <v>96319</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1942,21 +1946,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219875</v>
+        <v>219799</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Kärrknipprot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1970,10 +1974,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>604631.8089772827</v>
+        <v>604760.5280010353</v>
       </c>
       <c r="R12" t="n">
-        <v>6299457.861696233</v>
+        <v>6299377.339311483</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -2048,10 +2052,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>86907127</v>
+        <v>86907177</v>
       </c>
       <c r="B13" t="n">
-        <v>103400</v>
+        <v>96370</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2060,38 +2064,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>224190</v>
+        <v>219875</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Flockarun</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Centaurium erythraea var. erythraea</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>Platanthera chlorantha</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Custer) Rchb.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2100,10 +2096,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>604760.5280010353</v>
+        <v>604631.8089772827</v>
       </c>
       <c r="R13" t="n">
-        <v>6299377.339311483</v>
+        <v>6299457.861696233</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2178,10 +2174,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>92315739</v>
+        <v>86907127</v>
       </c>
       <c r="B14" t="n">
-        <v>104036</v>
+        <v>103400</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2194,38 +2190,46 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1656</v>
+        <v>224190</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Klibbveronika</t>
+          <t>Flockarun</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Veronica triphyllos</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>Centaurium erythraea var. erythraea</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Lindby tall, Öl</t>
+          <t>Lindby Tall, Öl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>604689.5818825862</v>
+        <v>604760.5280010353</v>
       </c>
       <c r="R14" t="n">
-        <v>6299494.341536127</v>
+        <v>6299377.339311483</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2252,7 +2256,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-04-10</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2262,7 +2266,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-04-10</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2280,25 +2284,30 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>igenväxande sandtag/vid liten damm</t>
+        </is>
+      </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Michael Tholin</t>
+          <t>Ulla-Britt Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Michael Tholin, Elin Boberg</t>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>97150066</v>
+        <v>92315739</v>
       </c>
       <c r="B15" t="n">
-        <v>96319</v>
+        <v>104036</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2307,25 +2316,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219799</v>
+        <v>1656</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kärrknipprot</t>
+          <t>Klibbveronika</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Veronica triphyllos</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2339,10 +2348,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>604749.5650598217</v>
+        <v>604689.5818825862</v>
       </c>
       <c r="R15" t="n">
-        <v>6299377.064317416</v>
+        <v>6299494.341536127</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2369,7 +2378,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2021-04-10</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2379,7 +2388,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-11-13</t>
+          <t>2021-04-10</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2397,30 +2406,25 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>gammal sandtag med dammar</t>
-        </is>
-      </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Michael Tholin</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Ingela Carlström, Thomas Gunnarsson, Tommy Carlström</t>
+          <t>Michael Tholin, Elin Boberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103149501</v>
+        <v>97150066</v>
       </c>
       <c r="B16" t="n">
-        <v>9182</v>
+        <v>96319</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2429,50 +2433,45 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>101093</v>
+        <v>219799</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kärrknipprot</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydrophilus aterrimus</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Eschscholtz, 1822</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>vattenhåvning</t>
-        </is>
-      </c>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Lindby Tall, Öl</t>
+          <t>Lindby tall, Öl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>604775.4498057003</v>
+        <v>604749.5650598217</v>
       </c>
       <c r="R16" t="n">
-        <v>6299416.577989991</v>
+        <v>6299377.064317416</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2496,7 +2495,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2006-12-16</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2506,7 +2505,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2006-12-16</t>
+          <t>2021-11-13</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2514,48 +2513,40 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Insamlingstillfälle 587. Lokalnr JG 152. Fynddata ur boken Vattenskalbaggar på Öland och i sydöstra Småland (2021). Se bok och bilagor med underlagsdata för närmare beskrivningar av metodik och resultat.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Damm i grustag</t>
+          <t>gammal sandtag med dammar</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Håkan Ljungberg</t>
+          <t>Ulla-Britt Andersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Joja Geijer</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Vattenskalbaggar på Öland och i sydöstra Småland</t>
-        </is>
-      </c>
+          <t>Ulla-Britt Andersson, Ingela Carlström, Thomas Gunnarsson, Tommy Carlström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>118329</v>
+        <v>103149501</v>
       </c>
       <c r="B17" t="n">
-        <v>97407</v>
+        <v>9182</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2568,31 +2559,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Vittåtel</t>
-        </is>
+        <v>101093</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Aira caryophyllea</t>
+          <t>Hydrophilus aterrimus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Eschscholtz, 1822</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>vattenhåvning</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2601,13 +2592,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>604806.2183970422</v>
+        <v>604775.4498057003</v>
       </c>
       <c r="R17" t="n">
-        <v>6299327.030962365</v>
+        <v>6299416.577989991</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2631,7 +2622,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2012-06-03</t>
+          <t>2006-12-16</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2641,7 +2632,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2012-06-03</t>
+          <t>2006-12-16</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2649,6 +2640,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Insamlingstillfälle 587. Lokalnr JG 152. Fynddata ur boken Vattenskalbaggar på Öland och i sydöstra Småland (2021). Se bok och bilagor med underlagsdata för närmare beskrivningar av metodik och resultat.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2660,21 +2656,25 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>fd sandtag/dammkant</t>
+          <t>Damm i grustag</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson</t>
+          <t>Håkan Ljungberg</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson, Ulla-Britt Andersson</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr"/>
+          <t>Joja Geijer</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Vattenskalbaggar på Öland och i sydöstra Småland</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
